--- a/BA/BA and work with requirements.xlsx
+++ b/BA/BA and work with requirements.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7E6F6A-B73E-4BE3-8EFC-36737816FC09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2F220D-DCE5-4A31-A95D-9BC1BFFF45FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Requirements" sheetId="1" r:id="rId1"/>
+    <sheet name="Verifications" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Cases" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -177,12 +177,77 @@
 3- User is logged in
 4- Redirect to URL original itempath parametr</t>
   </si>
+  <si>
+    <t>Create possible verifications to the following requirements:</t>
+  </si>
+  <si>
+    <t>“An online application charges customers to ship purchased items, based on the following criteria:
+•	Standard shipping cost for 6 item;
+•	Shipping is 5$ for 6 – 10 items
+•	Special shipping cost 2% for 10 – 15 items”</t>
+  </si>
+  <si>
+    <t>Correct requirements</t>
+  </si>
+  <si>
+    <t>Checklist</t>
+  </si>
+  <si>
+    <t>Check that the delivery for 1 item is 10$</t>
+  </si>
+  <si>
+    <t>Check that the delivery for 5 item is 10$</t>
+  </si>
+  <si>
+    <t>Check that the delivery for 6 item is 5$</t>
+  </si>
+  <si>
+    <t>Check that the delivery for 10 item is 5$</t>
+  </si>
+  <si>
+    <t>Check that the delivery for 11 item is 3$</t>
+  </si>
+  <si>
+    <t>Check that the delivery for 15 item is 3$</t>
+  </si>
+  <si>
+    <t>When placing a shipping order, the calculation of shipping costs is based on the following criteria:
+Delivering from 1-5 item costs 10 $
+Delivering from 6-10 item costs 5 $
+Delivering from 11-15 item costs 3$
+Delivering from 16 an more item costs 2$</t>
+  </si>
+  <si>
+    <t>Check that the delivery for 16 item is 2$</t>
+  </si>
+  <si>
+    <t>Check that the delivery for 25 item is 2$</t>
+  </si>
+  <si>
+    <t>Correct Requirements</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>1- Time format is specified without time zone
+2- No date of the second order
+3- No information on currency conversion
+4- No information on the actions that occur after the limit is exceeded</t>
+  </si>
+  <si>
+    <t>The daily limit on purchases is 100 $.
+The daily limit is updated at the beginning of the calendar day at 00:00:00 (UTC + 0). Exceeding the daily limit is a purchase of a total cost of more than 100$.
+For examle:
+The first order was placed at 00: 00: 00AM (UTC + 0) by 50$, the second order 50$ was made in 1: 38: 22PM(UTC+0) of the current calendar day, any subsequent order on the current calendar day will exceed the daily limit.
+Orders exceeding the daily limit will not be processed and a message will be displayed about exceeding the daily purchase limit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +283,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +348,23 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -262,64 +388,160 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="60% - Accent6" xfId="2" builtinId="52"/>
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="4" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -597,149 +819,310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" ht="169.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:9" ht="67.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81B1770-9CDE-461A-9578-346C22B0A84B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="76.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B5:F14">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9CBF8C2F-3BEF-46EB-9926-FFE6DCF72AC8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9CBF8C2F-3BEF-46EB-9926-FFE6DCF72AC8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B5:F14</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -747,16 +1130,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9B5956-2565-49C4-AF56-F46F0E616BFF}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="26.85546875" customWidth="1"/>
@@ -764,259 +1147,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="4" t="s">
         <v>23</v>
       </c>
     </row>

--- a/BA/BA and work with requirements.xlsx
+++ b/BA/BA and work with requirements.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2F220D-DCE5-4A31-A95D-9BC1BFFF45FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD315E8-E8A6-4FB2-A9B2-84FC414B5887}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -162,22 +162,6 @@
     <t>Major</t>
   </si>
   <si>
-    <t xml:space="preserve">Check if URL conteins valid language/country section when user is logged in and requested country equals to profile country </t>
-  </si>
-  <si>
-    <t>STR:
-1- Request a page whith walid format: [protocol]://[domain-name]/[language]/[country]/
-2- Check if format of [language]/[country]/ section is correct
-3- log in 
-4- Check if requested country equals profile country</t>
-  </si>
-  <si>
-    <t>1- Requested page is opened URL contains: [protocol]://[domain-name]/[language]/[country]/
-2- Format of /[language]/[country]/ part contain: "/en/us" or "/en-gb/uk"
-3- User is logged in
-4- Redirect to URL original itempath parametr</t>
-  </si>
-  <si>
     <t>Create possible verifications to the following requirements:</t>
   </si>
   <si>
@@ -241,6 +225,24 @@
 For examle:
 The first order was placed at 00: 00: 00AM (UTC + 0) by 50$, the second order 50$ was made in 1: 38: 22PM(UTC+0) of the current calendar day, any subsequent order on the current calendar day will exceed the daily limit.
 Orders exceeding the daily limit will not be processed and a message will be displayed about exceeding the daily purchase limit</t>
+  </si>
+  <si>
+    <t>Checking for a correct display of URL from a registered user with valid data</t>
+  </si>
+  <si>
+    <t>STR:
+1- Authorize on site
+2- Correctly fill in the language and country data
+3- Check if the URL is in the following format: [protocol]://[domain-name]/[language]/[country]/
+4- Check if format /[language]/[country]/ part contain: "/en/us" or "en-gb/uk"
+5- Check redirect to URL in origimalitemPath pframetr</t>
+  </si>
+  <si>
+    <t>1- User is logged in
+2- The language and country data are correct
+3- Requested page is opened URL contains: [protocol]://[domain-name]/[language]/[country]/
+4- Format of /[language]/[country]/ part contain: "/en/us" or "/en-gb/uk"
+5- Redirect to URL original itempath parametr</t>
   </si>
 </sst>
 </file>
@@ -467,7 +469,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -491,48 +493,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -821,131 +826,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -957,43 +962,43 @@
       <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" ht="169.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="A12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="A13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="67.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="A14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1024,69 +1029,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1130,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9B5956-2565-49C4-AF56-F46F0E616BFF}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,15 +1177,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
       <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.25">

--- a/BA/BA and work with requirements.xlsx
+++ b/BA/BA and work with requirements.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD315E8-E8A6-4FB2-A9B2-84FC414B5887}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
     <sheet name="Verifications" sheetId="2" r:id="rId2"/>
     <sheet name="Test Cases" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -57,97 +56,6 @@
     <t>“Daily Threshold represents the $ limit for all orders that has been submitted within current day. Day is considered as calendar day that starts at the midnight by our time. In case total of purchase within one day is more,  than Threshold value, then the Daily Thresholds is considered as exceeded.
 For example: Daily Threshold is set $100. 
 First Order with 50$ total submitted at 00:00:00 on the 17th of September. The second with 50 order submitted 5:20:23PM  the same date with €50 total,  then Threshold is exceeded”.</t>
-  </si>
-  <si>
-    <t>1- URL contains language-store
-2- Language-store is valid 
-3- User is logged in
-4- My Account page and ? originalItemPath is defined
-5- User’s country is equal to language-store in “originalItemPath=/languagestore”
-6- Redirect to URL in in originalItemPath parameter
-7- Finish</t>
-  </si>
-  <si>
-    <t>1- URL contains language-store
-2- Language-store is valid 
-3- Language is valid
-4- Throw 404 error
-5- Finish</t>
-  </si>
-  <si>
-    <t>1- URL contains language-store
-2- Language-store is valid 
-3- Language is valid
-4- Redirect to countryselection with originalItemPath value
-5- Finish</t>
-  </si>
-  <si>
-    <t>1- URL contains language-store
-2- Language-store is valid 
-3 -User is logged in
-4- Set country store cookie
-5- Render page
-6- Finish</t>
-  </si>
-  <si>
-    <t>1- URL contains language-store
-2- Language-store is valid 
-3 -User is logged in
-4- My Account page and ? originalItemPath is defined
-5- Store parameter differs in user profile
-6- Set country store cookie
-7- Render page
-8- Finish</t>
-  </si>
-  <si>
-    <t>1- URL contains language-store
-2- Language-store is valid 
-3 -User is logged in
-4- My Account page and ? originalItemPath is defined
-5- Store parameter differs in user profile
-6- Redirect to My Account
-7- Update language_store with user’s store and add “? originalItemPath=/languag e-store/...” URL parameter
-8- Finish</t>
-  </si>
-  <si>
-    <t>1- URL contains language-store
-2- Language-store is valid 
-3- User is logged in
-4- My Account page and ? originalItemPath is defined
-5- User’s country is equal to language-store in “originalItemPath=/languagestore”
-6- Show “change country” message
-7- Set country store cookie
-8- Render page
-9- Finish</t>
-  </si>
-  <si>
-    <t>1- URL contains language-store
-2- User is logged in
-3- Redirect to user’s language-store
-4- Finish</t>
-  </si>
-  <si>
-    <t>1- URL contains language-store
-2- User is logged in
-3- Cookie has a Store value
-4- Redirect to user’s language-store
-5- Finish</t>
-  </si>
-  <si>
-    <t>1- URL contains language-store
-2- User is logged in
-3- Cookie has a Store value
-4- Google bot
-5- Redirect to default language-store
-6- Finish</t>
-  </si>
-  <si>
-    <t>1- URL contains language-store
-2- User is logged in
-3- Cookie has a Store value
-4- Google bot
-5- Redirect to countryselection with originalItemPath value
-6- Finish</t>
   </si>
   <si>
     <t>Ivan Shmidt</t>
@@ -177,35 +85,7 @@
     <t>Checklist</t>
   </si>
   <si>
-    <t>Check that the delivery for 1 item is 10$</t>
-  </si>
-  <si>
-    <t>Check that the delivery for 5 item is 10$</t>
-  </si>
-  <si>
     <t>Check that the delivery for 6 item is 5$</t>
-  </si>
-  <si>
-    <t>Check that the delivery for 10 item is 5$</t>
-  </si>
-  <si>
-    <t>Check that the delivery for 11 item is 3$</t>
-  </si>
-  <si>
-    <t>Check that the delivery for 15 item is 3$</t>
-  </si>
-  <si>
-    <t>When placing a shipping order, the calculation of shipping costs is based on the following criteria:
-Delivering from 1-5 item costs 10 $
-Delivering from 6-10 item costs 5 $
-Delivering from 11-15 item costs 3$
-Delivering from 16 an more item costs 2$</t>
-  </si>
-  <si>
-    <t>Check that the delivery for 16 item is 2$</t>
-  </si>
-  <si>
-    <t>Check that the delivery for 25 item is 2$</t>
   </si>
   <si>
     <t>Correct Requirements</t>
@@ -227,34 +107,171 @@
 Orders exceeding the daily limit will not be processed and a message will be displayed about exceeding the daily purchase limit</t>
   </si>
   <si>
-    <t>Checking for a correct display of URL from a registered user with valid data</t>
-  </si>
-  <si>
-    <t>STR:
-1- Authorize on site
-2- Correctly fill in the language and country data
-3- Check if the URL is in the following format: [protocol]://[domain-name]/[language]/[country]/
-4- Check if format /[language]/[country]/ part contain: "/en/us" or "en-gb/uk"
-5- Check redirect to URL in origimalitemPath pframetr</t>
-  </si>
-  <si>
-    <t>1- User is logged in
-2- The language and country data are correct
-3- Requested page is opened URL contains: [protocol]://[domain-name]/[language]/[country]/
-4- Format of /[language]/[country]/ part contain: "/en/us" or "/en-gb/uk"
-5- Redirect to URL original itempath parametr</t>
+    <t>Check that the delivery for 11 item is 2% of the total cost of the order</t>
+  </si>
+  <si>
+    <t>Check that the delivery for 15 item is 2% of the total cost of the order</t>
+  </si>
+  <si>
+    <t>Check that the delivery for 16 item is 3% of the total cost of the order</t>
+  </si>
+  <si>
+    <t>Check that the delivery for 25 item is 3% of the total cost of the order</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1-
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1-</t>
+    </r>
+  </si>
+  <si>
+    <t>Check if support backward compatibility for users already defines a country-store in the cookie value.</t>
+  </si>
+  <si>
+    <t>Check if redirect rule for a Google bot should be adjusted in accordance to changes in URL format.</t>
+  </si>
+  <si>
+    <t>Check if language and country-store parameters are mandatory.</t>
+  </si>
+  <si>
+    <t>Check if language and country-store parameters are passed in URL.</t>
+  </si>
+  <si>
+    <t>Check if logged in user gets a detailed notification in case of an attempt to access a page out of the country
+defined in his profile.</t>
+  </si>
+  <si>
+    <t>When placing a shipping order, the calculation of shipping costs is based on the following criteria:
+Delivering from 1-6 item costs 5 $
+Delivering from 7-10 item costs 7 $
+Delivering from 11-15 item costs 2% of the total cost of the order
+Delivering from 16 an more item costs 3% of the total cost of the order</t>
+  </si>
+  <si>
+    <t>Check that the delivery for 1 item is 5$</t>
+  </si>
+  <si>
+    <t>Check that the delivery for 7 item is 7$</t>
+  </si>
+  <si>
+    <t>Check that the delivery for 10 item is 7$</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Preconditions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. User is logged in
+2. United states is set as default country for language and store settings</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Steps
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 Request page for United states
+2 check url's
+3 Verfy that то что там по таблице получается</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,6 +346,15 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -463,19 +489,19 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -484,10 +510,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -496,57 +522,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="60% - Accent6" xfId="2" builtinId="52"/>
-    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="4" builtinId="21"/>
+    <cellStyle name="60% - Акцент6" xfId="2" builtinId="52"/>
+    <cellStyle name="Ввод " xfId="1" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="4" builtinId="21"/>
+    <cellStyle name="Контрольная ячейка" xfId="5" builtinId="23"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -604,7 +633,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -639,7 +668,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -816,14 +845,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -833,172 +862,172 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="A11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" spans="1:9" ht="169.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="A12" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="A13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="67.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="A14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1016,11 +1045,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81B1770-9CDE-461A-9578-346C22B0A84B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,68 +1059,68 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1132,11 +1161,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9B5956-2565-49C4-AF56-F46F0E616BFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,251 +1206,181 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="16"/>
       <c r="E2" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BA/BA and work with requirements.xlsx
+++ b/BA/BA and work with requirements.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65904DCE-99DC-4F3C-A667-5C42ED4C63E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -119,55 +120,6 @@
     <t>Check that the delivery for 25 item is 3% of the total cost of the order</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Precondition:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1-
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1-</t>
-    </r>
-  </si>
-  <si>
     <t>Check if support backward compatibility for users already defines a country-store in the cookie value.</t>
   </si>
   <si>
@@ -222,8 +174,8 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1. User is logged in
-2. United states is set as default country for language and store settings</t>
+      <t>1- User is logged in
+2- United states is set as default country for language and store settings</t>
     </r>
     <r>
       <rPr>
@@ -248,16 +200,272 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1 Request page for United states
-2 check url's
-3 Verfy that то что там по таблице получается</t>
-    </r>
+      <t>1- Request page for United states
+2- Check url's
+3- Verfy that URL Format:
+[protocol]://[domain-name]/[language]/[country]/[ rest part of url ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- User is logged in
+2- Language and store settings not set
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Request page for United states
+2- Pay attention to the URL and displayed content of the page
+3- Verfy that URL Format:
+[protocol]://[domain-name]/[language]/[country]/[ rest part of url ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- User is logged in
+2- United states is set as default country for language and store settings
+3- Close the page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Request page for United states
+2- Check url's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3- Verfy that URL Format:
+[protocol]://[domain-name]/[language]/[country]/[ rest part of url ]</t>
+    </r>
+  </si>
+  <si>
+    <t>The requested page is opened and URL corresponds to the format: [protocol]://[domain-name]/[language]/[country]/[ rest part of url ]</t>
+  </si>
+  <si>
+    <t>The requested page has opened, URL corresponds to the Format: [protocol]://[domain-name]/[language]/[country]/[ rest part of url ]. The country and language data were automatically set up using the default settings CMS</t>
+  </si>
+  <si>
+    <t>The requested page is opened, the country and language data are automatically downloaded from the cookies</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Googlebot requests page
+2- See the logs, which page was displayed to Google bot</t>
+    </r>
+  </si>
+  <si>
+    <t>Googlebot submitted a request to access the page, the cookie data was transferred to it, if there were no such, the default CMS settings were transmitted. The logs should have default country store "en-US"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- User is logged in
+2- United states is set as default country for language and store settings
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Request page for China
+2- Pay attention to the URL and displayed content of the page</t>
+    </r>
+  </si>
+  <si>
+    <t>When you try to load the page, error 404 will be displayed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -541,6 +749,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,17 +776,14 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="60% - Акцент6" xfId="2" builtinId="52"/>
-    <cellStyle name="Ввод " xfId="1" builtinId="20"/>
-    <cellStyle name="Вывод" xfId="4" builtinId="21"/>
-    <cellStyle name="Контрольная ячейка" xfId="5" builtinId="23"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Хороший" xfId="3" builtinId="26"/>
+    <cellStyle name="60% - Accent6" xfId="2" builtinId="52"/>
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="4" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -845,14 +1053,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -862,172 +1070,172 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" ht="169.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" ht="67.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1045,7 +1253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1074,7 +1282,7 @@
     </row>
     <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="9"/>
     </row>
@@ -1085,7 +1293,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1095,12 +1303,12 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1161,11 +1369,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,17 +1414,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1230,17 +1440,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1254,17 +1466,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="C4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1278,17 +1492,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1302,17 +1518,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="16"/>
+        <v>32</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
